--- a/Homework/FluidsHW8.xlsx
+++ b/Homework/FluidsHW8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wroos\Desktop\Fall24Classes\Homework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6086E4D-EC80-44E9-90E0-2D8C47F18476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{C6086E4D-EC80-44E9-90E0-2D8C47F18476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3344FC24-B70D-4C5D-B7AE-4985066ECC13}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -574,46 +574,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="35">
     <dxf>
       <font>
         <b val="0"/>
@@ -635,13 +635,11 @@
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -670,165 +668,9 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right/>
-        <top/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -856,10 +698,19 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -930,7 +781,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </left>
@@ -938,7 +789,11 @@
           <color theme="1" tint="0.34998626667073579"/>
         </right>
         <top/>
-        <bottom/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -962,11 +817,13 @@
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom/>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -995,9 +852,133 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right/>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -1025,9 +1006,7 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -1035,9 +1014,18 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1048,6 +1036,108 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
@@ -1061,6 +1151,41 @@
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1253,34 +1378,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1341,13 +1438,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </left>
@@ -1357,6 +1447,13 @@
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
@@ -1390,151 +1487,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1549,58 +1501,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{63776E80-D3B2-4BED-8BFD-81AC68EAF090}" name="Table5" displayName="Table5" ref="A2:C19" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="16" tableBorderDxfId="17" totalsRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{63776E80-D3B2-4BED-8BFD-81AC68EAF090}" name="Table5" displayName="Table5" ref="A2:C19" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
   <autoFilter ref="A2:C19" xr:uid="{63776E80-D3B2-4BED-8BFD-81AC68EAF090}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{07CA367D-DD83-48BA-8CAD-6B6F25617A5C}" name="Quantity" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5BE034B2-AE6D-4381-B0D6-A04DCFC5A71A}" name="Unit" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{49E2FE4A-189E-41BA-90D2-1D207892279E}" name="Value" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{07CA367D-DD83-48BA-8CAD-6B6F25617A5C}" name="Quantity" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5BE034B2-AE6D-4381-B0D6-A04DCFC5A71A}" name="Unit" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{49E2FE4A-189E-41BA-90D2-1D207892279E}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46C7B79F-8C8A-4EE2-8B3A-C8F105B716D1}" name="Table47" displayName="Table47" ref="E2:L4" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46C7B79F-8C8A-4EE2-8B3A-C8F105B716D1}" name="Table47" displayName="Table47" ref="E2:L4" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
   <autoFilter ref="E2:L4" xr:uid="{46C7B79F-8C8A-4EE2-8B3A-C8F105B716D1}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7CB7B2B5-F8BF-4F50-A144-9E5E370DBE0D}" name="Type" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{EBEC350F-EC40-46D1-A9BA-B07293B28BA1}" name="Specifications" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{55F0B80F-E5E1-4CCF-A1DF-01358119310E}" name="Number" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{2E25BCEA-21C9-495D-B933-A6D007A3A770}" name="r/D" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A93557E0-068D-47EC-903E-C5CB0F86552E}" name="(L/D)eq" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{43CF597A-9D29-4493-8502-5999C1629C41}" name="K1" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{90434562-4A27-46B4-A2EE-B23EA07F87E5}" name="Ki" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{EC069F80-CF06-43EC-94F8-EE88788A99BC}" name="Kd" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7CB7B2B5-F8BF-4F50-A144-9E5E370DBE0D}" name="Type" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{EBEC350F-EC40-46D1-A9BA-B07293B28BA1}" name="Specifications" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{55F0B80F-E5E1-4CCF-A1DF-01358119310E}" name="Number" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{2E25BCEA-21C9-495D-B933-A6D007A3A770}" name="r/D" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{A93557E0-068D-47EC-903E-C5CB0F86552E}" name="(L/D)eq" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{43CF597A-9D29-4493-8502-5999C1629C41}" name="K1" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{90434562-4A27-46B4-A2EE-B23EA07F87E5}" name="Ki" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{EC069F80-CF06-43EC-94F8-EE88788A99BC}" name="Kd" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E3C8784-44A9-48CC-A4B7-6147513290F5}" name="Table2" displayName="Table2" ref="A2:C18" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="33" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E3C8784-44A9-48CC-A4B7-6147513290F5}" name="Table2" displayName="Table2" ref="A2:C18" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A2:C18" xr:uid="{5E3C8784-44A9-48CC-A4B7-6147513290F5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A46061FE-C423-4C1C-92E2-D6BA9F8D67A3}" name="Quantity" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{67C7E5AE-F6E8-4FF9-B326-A37F76CDBFCA}" name="Units" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{01728CC4-FB8E-4742-9D79-7BAB63A4F015}" name="Value" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{A46061FE-C423-4C1C-92E2-D6BA9F8D67A3}" name="Quantity" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{67C7E5AE-F6E8-4FF9-B326-A37F76CDBFCA}" name="Units" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{01728CC4-FB8E-4742-9D79-7BAB63A4F015}" name="Value" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4672CA8D-68D2-49D2-AEC0-C00852B0EEFE}" name="Table4" displayName="Table4" ref="E2:L4" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="27" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4672CA8D-68D2-49D2-AEC0-C00852B0EEFE}" name="Table4" displayName="Table4" ref="E2:L4" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="E2:L4" xr:uid="{4672CA8D-68D2-49D2-AEC0-C00852B0EEFE}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AC23AE87-50CB-4A90-AC98-150333024A7E}" name="Type" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F8D4B7CB-6B96-473E-BFA0-AF104D5CF375}" name="Specifications" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{03259BC0-CF74-490A-87CD-3CEDFF1D2CC2}" name="Number" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{CEB30F0F-1D02-4560-BB42-C00210996698}" name="r/D" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{077F03B1-5716-452A-BFF2-86597921FBD6}" name="(L/D)eq" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{B6FE7BD7-5A84-4984-9E72-760941487FE7}" name="K1" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{3C2B5018-430D-44B1-A6A0-03B9B8FCB3F4}" name="Ki" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{605A8531-EDD2-4EFA-B5EA-4BD999E504D4}" name="Kd" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{AC23AE87-50CB-4A90-AC98-150333024A7E}" name="Type" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{F8D4B7CB-6B96-473E-BFA0-AF104D5CF375}" name="Specifications" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{03259BC0-CF74-490A-87CD-3CEDFF1D2CC2}" name="Number" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{CEB30F0F-1D02-4560-BB42-C00210996698}" name="r/D" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{077F03B1-5716-452A-BFF2-86597921FBD6}" name="(L/D)eq" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B6FE7BD7-5A84-4984-9E72-760941487FE7}" name="K1" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{3C2B5018-430D-44B1-A6A0-03B9B8FCB3F4}" name="Ki" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{605A8531-EDD2-4EFA-B5EA-4BD999E504D4}" name="Kd" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1871,36 +1823,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="3"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="3"/>
     <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1935,14 +1887,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>60</v>
       </c>
       <c r="E3" s="7" t="s">
@@ -1970,12 +1922,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <f>C3*6.72*10^-4</f>
         <v>4.0320000000000002E-2</v>
       </c>
@@ -2002,496 +1954,496 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="13">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>500</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <f>C6/60*35.3147/264.172</f>
         <v>1.1140059001963367</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="H7" s="14" t="s">
+      <c r="F7" s="27"/>
+      <c r="H7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="14" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="14" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="14" t="s">
+      <c r="M7" s="21"/>
+      <c r="N7" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="15">
         <f>C7*C5</f>
         <v>61.270324510798517</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="25" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="16">
         <f>4*C7*C5/PI()/C4/C17</f>
         <v>4030.1679646961493</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="18">
         <f>4*$F$11*$C$13/$C$17</f>
-        <v>88.393504754182686</v>
-      </c>
-      <c r="J8" s="26" t="s">
+        <v>34.041057354558767</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="26">
-        <f>J3/$F$8+K3*(1+L3/$C$19^0.3)*G3</f>
-        <v>9.6666964523211458</v>
-      </c>
-      <c r="L8" s="26" t="s">
+      <c r="K8" s="18">
+        <f>(J3/$F$8+K3*(1+L3/$C$18^0.3))*G3</f>
+        <v>9.0386694151592017</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="26">
+      <c r="M8" s="18">
         <f>4*$F$11*I3*G3</f>
-        <v>33.210977014489984</v>
-      </c>
-      <c r="N8" s="26" t="s">
+        <v>14.70828985647098</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="26">
+      <c r="O8" s="18">
         <f>4*$F$12*I3*G3</f>
         <v>5.4240366318890114</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="13">
         <f>2*32.174*144+C5*32.174*15</f>
         <v>35809.661999999997</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="25" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="24">
-        <f>(2.457*LN(1/((7/F8)^0.9+0.27*C15)))</f>
-        <v>13.991850914273863</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26" t="s">
+      <c r="F9" s="16">
+        <f>(2.457*LN(1/((7/F8)^0.9+0.27*C15)))^16</f>
+        <v>2.1577578443791452E+18</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="K9" s="26">
-        <f>J4/$F$8+K4*(1+L4/$C$19^0.3)*G4</f>
-        <v>36.427861168116294</v>
-      </c>
-      <c r="L9" s="26" t="s">
+      <c r="K9" s="18">
+        <f>(J4/$F$8+K4*(1+L4/$C$18^0.3))*G4</f>
+        <v>22.589759569542412</v>
+      </c>
+      <c r="L9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="18">
         <f>4*$F$11*I4*G4</f>
-        <v>125.46369094362883</v>
-      </c>
-      <c r="N9" s="26" t="s">
+        <v>55.564650568890372</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="O9" s="26">
+      <c r="O9" s="18">
         <f>4*$F$12*I4*G4</f>
         <v>20.49080505380293</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <f>20*32.174*144</f>
         <v>92661.119999999995</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="19">
         <f>(37530/F8)^16</f>
         <v>3198060577834767.5</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="19">
         <f>$I$8+K9+K8</f>
-        <v>134.48806237462011</v>
-      </c>
-      <c r="L10" s="27" t="s">
+        <v>65.669486339260388</v>
+      </c>
+      <c r="L10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="19">
         <f>$I$8+M9+M8</f>
-        <v>247.06817271230148</v>
-      </c>
-      <c r="N10" s="27" t="s">
+        <v>104.31399777992011</v>
+      </c>
+      <c r="N10" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="19">
         <f>$I$8+O9+O8</f>
-        <v>114.30834643987463</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+        <v>59.955899040250706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <f>C9-C10</f>
         <v>-56851.457999999999</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="25" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="16">
         <f>2*((8/F8)^12+1/(F9+F10)^(3/2))^(1/12)</f>
-        <v>2.3063178482284712E-2</v>
-      </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+        <v>1.0214090178104847E-2</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="15">
         <v>-60</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="25" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="16">
         <f>0.0625/(LOG10(3.7/C15))^2</f>
         <v>3.76669210547848E-3</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="19">
-        <v>460</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="C13" s="13">
+        <v>400</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14" t="s">
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="14" t="s">
+      <c r="L13" s="22"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="O13" s="22"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="15">
         <v>1.8E-3</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I14" s="27" t="s">
+      <c r="I14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="19">
         <f>8*$C$7^2/PI()^2*K10/$C$17^4-$C$11/$C$5-$C$12*32.174</f>
-        <v>5510.8301710479063</v>
-      </c>
-      <c r="K14" s="27" t="s">
+        <v>4207.6502223874268</v>
+      </c>
+      <c r="K14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="19">
         <f>8*$C$7^2/PI()^2*M10/$C$17^4-$C$11/$C$5-$C$12*32.174</f>
-        <v>7642.6984958831708</v>
-      </c>
-      <c r="N14" s="27" t="s">
+        <v>4939.4403194300103</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="19">
         <f>8*$C$7^2/PI()^2*O10/$C$17^4-$C$11/$C$5-$C$12*32.174</f>
-        <v>5128.6978647602464</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+        <v>4099.4551269358035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <f>C14/C16</f>
         <v>3.1244575594514839E-4</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="19"/>
+      <c r="I15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="19">
         <f>J14/32.174</f>
-        <v>171.2820964458229</v>
-      </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27" t="s">
+        <v>130.77796426889498</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="27">
+      <c r="M15" s="19">
         <f>M14/32.174</f>
-        <v>237.54268962153202</v>
-      </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27" t="s">
+        <v>153.52273013706753</v>
+      </c>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="19">
         <f>P14/32.174</f>
-        <v>159.40504335053913</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+        <v>127.41515282326735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="15">
         <v>5.7610000000000001</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="19">
         <f>J15*$C$8</f>
-        <v>10494.509632125459</v>
-      </c>
-      <c r="K16" s="27" t="s">
+        <v>8012.8083096168084</v>
+      </c>
+      <c r="K16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="L16" s="27" t="s">
+      <c r="L16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="19">
         <f>M15*$C$8</f>
-        <v>14554.317678279158</v>
-      </c>
-      <c r="N16" s="27" t="s">
+        <v>9406.3874952818751</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="19">
         <f>P15*$C$8</f>
-        <v>9766.7987347454382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
+        <v>7806.7677610745759</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="15">
         <f>C16/12</f>
         <v>0.48008333333333336</v>
       </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="19">
         <f>J16/737.562*1.34102</f>
-        <v>19.080900733596476</v>
-      </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27" t="s">
+        <v>14.568722628555069</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="M17" s="27">
+      <c r="M17" s="19">
         <f>M16/737.562*1.34102</f>
-        <v>26.462359900490963</v>
-      </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27" t="s">
+        <v>17.102499530782364</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="19">
         <f>P16/737.562*1.34102</f>
-        <v>17.757791804984976</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+        <v>14.194103957302881</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="19">
-        <v>6.625</v>
-      </c>
-      <c r="H18" s="27" t="s">
+      <c r="C18" s="13">
+        <v>6</v>
+      </c>
+      <c r="H18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="19">
         <f>J14/32.174</f>
-        <v>171.2820964458229</v>
-      </c>
-      <c r="K18" s="27" t="s">
+        <v>130.77796426889498</v>
+      </c>
+      <c r="K18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="27" t="s">
+      <c r="L18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="M18" s="27">
+      <c r="M18" s="19">
         <f>M14/32.174</f>
-        <v>237.54268962153202</v>
-      </c>
-      <c r="N18" s="27" t="s">
+        <v>153.52273013706753</v>
+      </c>
+      <c r="N18" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="19">
         <f>P14/32.174</f>
-        <v>159.40504335053913</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+        <v>127.41515282326735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="15">
         <f>C18/12</f>
-        <v>0.55208333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="H6:O6"/>
     <mergeCell ref="H12:P12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="N13:P13"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <picture r:id="rId1"/>
@@ -2506,36 +2458,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D106FB-F0B4-488C-A96C-20D7EEFBA8F4}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="2" customWidth="1"/>
-    <col min="2" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="10.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="10.88671875" style="2" customWidth="1"/>
+    <col min="2" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="10.44140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="E1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2570,7 +2522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -2639,7 +2591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2650,7 +2602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -2660,7 +2612,7 @@
         <v>416975.04</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -2670,13 +2622,13 @@
       <c r="C7" s="8">
         <v>20</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -2685,16 +2637,16 @@
         <f>C7*1.8+32</f>
         <v>68</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <f>4*C11/C15*(0.0625/(LOG10(3.7/C13))^2)</f>
         <v>124.3041504903608</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -2704,16 +2656,16 @@
       <c r="C9" s="5">
         <v>0.95</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13">
-        <f>G3*(K3*(1+L3/$C$17^0.3))</f>
-        <v>20.848252640597682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <f>G3*(K3*(1+L3/$C$16^0.3))</f>
+        <v>12.007639683821385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -2722,16 +2674,16 @@
         <f>C9*6.72*10^-4</f>
         <v>6.3840000000000001E-4</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
-        <f>G4*(K4*(1+L4/$C$17^0.3))</f>
-        <v>6.4220063937555345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
+        <f>G4*(K4*(1+L4/$C$16^0.3))</f>
+        <v>3.6987818668914079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
@@ -2741,16 +2693,16 @@
       <c r="C11" s="8">
         <v>250</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <f>SUM(G8:G10)</f>
-        <v>151.57440952471401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140.0105720410736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
@@ -2761,7 +2713,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
@@ -2769,17 +2721,17 @@
         <f>C12/C14</f>
         <v>7.2815533980582527E-3</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="12" t="s">
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -2789,21 +2741,21 @@
       <c r="C14" s="5">
         <v>0.82399999999999995</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10">
         <v>1</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <v>2</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>3</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
         <v>17</v>
@@ -2812,27 +2764,27 @@
         <f>C14/12</f>
         <v>6.8666666666666668E-2</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="10">
         <f>PI()/2/SQRT(2)*SQRT($C$6/$C$4/G11*$C$15^4)</f>
-        <v>3.4765589898242549E-2</v>
-      </c>
-      <c r="G15" s="13">
+        <v>3.6172800267356905E-2</v>
+      </c>
+      <c r="G15" s="10">
         <f>PI()/2/SQRT(2)*SQRT($C$6/$C$4/F23*$C$15^4)</f>
-        <v>3.4144813072892626E-2</v>
-      </c>
-      <c r="H15" s="13">
+        <v>3.5498536957561708E-2</v>
+      </c>
+      <c r="H15" s="10">
         <f>PI()/2/SQRT(2)*SQRT($C$6/$C$4/G23*$C$15^4)</f>
-        <v>3.4135095169944875E-2</v>
-      </c>
-      <c r="I15" s="17">
+        <v>3.5487508134427345E-2</v>
+      </c>
+      <c r="I15" s="11">
         <f>H15*60/35.3147*264.172</f>
-        <v>15.320877189218107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>15.927881588496476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
@@ -2840,50 +2792,50 @@
         <v>19</v>
       </c>
       <c r="C16" s="8">
-        <v>1.05</v>
-      </c>
-      <c r="E16" s="13" t="s">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="10">
         <f>4*$C$4*F15/PI()/$C$10/$C$15</f>
-        <v>63037.570481257069</v>
-      </c>
-      <c r="G16" s="13">
+        <v>65589.148725280669</v>
+      </c>
+      <c r="G16" s="10">
         <f>4*$C$4*G15/PI()/$C$10/$C$15</f>
-        <v>61911.967176504717</v>
-      </c>
-      <c r="H16" s="13">
+        <v>64366.562799411207</v>
+      </c>
+      <c r="H16" s="10">
         <f>4*$C$4*H15/PI()/$C$10/$C$15</f>
-        <v>61894.346506359558</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64346.565146050736</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="8">
         <f>C16/12</f>
-        <v>8.7500000000000008E-2</v>
-      </c>
-      <c r="E17" s="13" t="s">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f>(2.457*LN(1/((7/F16)^0.9+(0.27*$C$13))))^16</f>
-        <v>6.4890030749402112E+18</v>
-      </c>
-      <c r="G17" s="13">
+        <v>6.5630614496884849E+18</v>
+      </c>
+      <c r="G17" s="10">
         <f>(2.457*LN(1/((7/G16)^0.9+(0.27*$C$13))))^16</f>
-        <v>6.4548682656693422E+18</v>
-      </c>
-      <c r="H17" s="13">
+        <v>6.5281344447576361E+18</v>
+      </c>
+      <c r="H17" s="10">
         <f>(2.457*LN(1/((7/H16)^0.9+(0.27*$C$13))))^16</f>
-        <v>6.4543264495291914E+18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.5275547500438651E+18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
@@ -2894,105 +2846,105 @@
         <f>PI()*C15^2/4</f>
         <v>3.7032396068815681E-3</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <f>(37530/F16)^16</f>
-        <v>2.4915267982169882E-4</v>
-      </c>
-      <c r="G18" s="13">
+        <v>1.3205204225686184E-4</v>
+      </c>
+      <c r="G18" s="10">
         <f>(37530/G16)^16</f>
-        <v>3.3240180708582777E-4</v>
-      </c>
-      <c r="H18" s="13">
+        <v>1.7843988663840499E-4</v>
+      </c>
+      <c r="H18" s="10">
         <f>(37530/H16)^16</f>
-        <v>3.3391914508183214E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="13" t="s">
+        <v>1.7932924778662427E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="10">
         <f>2*((8/F16)^12+1/(F17+F18)^(3/2))^(1/12)</f>
-        <v>8.9024132050285251E-3</v>
-      </c>
-      <c r="G19" s="13">
+        <v>8.8897937852188171E-3</v>
+      </c>
+      <c r="G19" s="10">
         <f>2*((8/G16)^12+1/(G17+G18)^(3/2))^(1/12)</f>
-        <v>8.9082843827512897E-3</v>
-      </c>
-      <c r="H19" s="13">
+        <v>8.8957252177423278E-3</v>
+      </c>
+      <c r="H19" s="10">
         <f>2*((8/H16)^12+1/(H17+H18)^(3/2))^(1/12)</f>
-        <v>8.9083778563894944E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E20" s="13" t="s">
+        <v>8.8958239646072333E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="10">
         <f>4*F19*$C$11/$C$15</f>
-        <v>129.64679424798823</v>
-      </c>
-      <c r="G20" s="13">
+        <v>129.46301628959444</v>
+      </c>
+      <c r="G20" s="10">
         <f>4*G19*$C$11/$C$15</f>
-        <v>129.73229683618385</v>
-      </c>
-      <c r="H20" s="13">
+        <v>129.54939637488826</v>
+      </c>
+      <c r="H20" s="10">
         <f>4*H19*$C$11/$C$15</f>
-        <v>129.73365810275962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E21" s="13" t="s">
+        <v>129.55083443602766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E21" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="13">
-        <f>$G3*($J3/F$16+$K3*(1+$L3/$C$17^0.3))</f>
-        <v>21.051306151421134</v>
-      </c>
-      <c r="G21" s="13">
-        <f>$G3*($J3/G$16+$K3*(1+$L3/$C$17^0.3))</f>
-        <v>21.054997807707434</v>
-      </c>
-      <c r="H21" s="13">
-        <f>$G3*($J3/H$16+$K3*(1+$L3/$C$17^0.3))</f>
-        <v>21.055056665884301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E22" s="13" t="s">
+      <c r="F21" s="10">
+        <f>$G3*($J3/F$16+$K3*(1+$L3/$C$16^0.3))</f>
+        <v>12.202793916629203</v>
+      </c>
+      <c r="G21" s="10">
+        <f>$G3*($J3/G$16+$K3*(1+$L3/$C$16^0.3))</f>
+        <v>12.206500698660554</v>
+      </c>
+      <c r="H21" s="10">
+        <f>$G3*($J3/H$16+$K3*(1+$L3/$C$16^0.3))</f>
+        <v>12.206562500772797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E22" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="13">
-        <f>$G4*($J4/F$16+$K4*(1+$L4/$C$17^0.3))</f>
-        <v>6.4378699492886167</v>
-      </c>
-      <c r="G22" s="13">
-        <f>$G4*($J4/G$16+$K4*(1+$L4/$C$17^0.3))</f>
-        <v>6.4381583599359837</v>
-      </c>
-      <c r="H22" s="13">
-        <f>$G4*($J4/H$16+$K4*(1+$L4/$C$17^0.3))</f>
-        <v>6.438162958231052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="13" t="s">
+      <c r="F22" s="10">
+        <f>$G4*($J4/F$16+$K4*(1+$L4/$C$16^0.3))</f>
+        <v>3.7140282913295186</v>
+      </c>
+      <c r="G22" s="10">
+        <f>$G4*($J4/G$16+$K4*(1+$L4/$C$16^0.3))</f>
+        <v>3.7143178836757178</v>
+      </c>
+      <c r="H22" s="10">
+        <f>$G4*($J4/H$16+$K4*(1+$L4/$C$16^0.3))</f>
+        <v>3.7143227119657372</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="10">
         <f>SUM(F20:F22)</f>
-        <v>157.13597034869798</v>
-      </c>
-      <c r="G23" s="13">
+        <v>145.37983849755315</v>
+      </c>
+      <c r="G23" s="10">
         <f>SUM(G20:G22)</f>
-        <v>157.22545300382725</v>
-      </c>
-      <c r="H23" s="13">
+        <v>145.47021495722453</v>
+      </c>
+      <c r="H23" s="10">
         <f>SUM(H20:H22)</f>
-        <v>157.22687772687499</v>
+        <v>145.4717196487662</v>
       </c>
     </row>
   </sheetData>

--- a/Homework/FluidsHW8.xlsx
+++ b/Homework/FluidsHW8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b17c6545b7781650/Desktop/Fall24Classes/Homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{C6086E4D-EC80-44E9-90E0-2D8C47F18476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3344FC24-B70D-4C5D-B7AE-4985066ECC13}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{C6086E4D-EC80-44E9-90E0-2D8C47F18476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28311D3F-A536-44AF-AED1-686FBAF042DD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -635,11 +635,13 @@
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom/>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -668,9 +670,165 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right/>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -698,9 +856,7 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
+        <top/>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -708,9 +864,18 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -721,6 +886,108 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
@@ -731,6 +998,13 @@
         <top style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </top>
+        <bottom style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </bottom>
@@ -1065,103 +1339,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1177,15 +1354,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
+        <right/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1212,197 +1391,9 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1" tint="0.34998626667073579"/>
-        </left>
-        <right/>
-        <top/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
@@ -1430,10 +1421,19 @@
         <right style="thin">
           <color theme="1" tint="0.34998626667073579"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
         <bottom/>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1" tint="0.34998626667073579"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1500,59 +1500,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{63776E80-D3B2-4BED-8BFD-81AC68EAF090}" name="Table5" displayName="Table5" ref="A2:C19" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{63776E80-D3B2-4BED-8BFD-81AC68EAF090}" name="Table5" displayName="Table5" ref="A2:C19" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A2:C19" xr:uid="{63776E80-D3B2-4BED-8BFD-81AC68EAF090}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{07CA367D-DD83-48BA-8CAD-6B6F25617A5C}" name="Quantity" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{5BE034B2-AE6D-4381-B0D6-A04DCFC5A71A}" name="Unit" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{49E2FE4A-189E-41BA-90D2-1D207892279E}" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{07CA367D-DD83-48BA-8CAD-6B6F25617A5C}" name="Quantity" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{5BE034B2-AE6D-4381-B0D6-A04DCFC5A71A}" name="Unit" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{49E2FE4A-189E-41BA-90D2-1D207892279E}" name="Value" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46C7B79F-8C8A-4EE2-8B3A-C8F105B716D1}" name="Table47" displayName="Table47" ref="E2:L4" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{46C7B79F-8C8A-4EE2-8B3A-C8F105B716D1}" name="Table47" displayName="Table47" ref="E2:L4" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="E2:L4" xr:uid="{46C7B79F-8C8A-4EE2-8B3A-C8F105B716D1}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7CB7B2B5-F8BF-4F50-A144-9E5E370DBE0D}" name="Type" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{EBEC350F-EC40-46D1-A9BA-B07293B28BA1}" name="Specifications" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{55F0B80F-E5E1-4CCF-A1DF-01358119310E}" name="Number" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{2E25BCEA-21C9-495D-B933-A6D007A3A770}" name="r/D" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{A93557E0-068D-47EC-903E-C5CB0F86552E}" name="(L/D)eq" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{43CF597A-9D29-4493-8502-5999C1629C41}" name="K1" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{90434562-4A27-46B4-A2EE-B23EA07F87E5}" name="Ki" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{EC069F80-CF06-43EC-94F8-EE88788A99BC}" name="Kd" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{7CB7B2B5-F8BF-4F50-A144-9E5E370DBE0D}" name="Type" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{EBEC350F-EC40-46D1-A9BA-B07293B28BA1}" name="Specifications" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{55F0B80F-E5E1-4CCF-A1DF-01358119310E}" name="Number" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{2E25BCEA-21C9-495D-B933-A6D007A3A770}" name="r/D" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A93557E0-068D-47EC-903E-C5CB0F86552E}" name="(L/D)eq" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{43CF597A-9D29-4493-8502-5999C1629C41}" name="K1" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{90434562-4A27-46B4-A2EE-B23EA07F87E5}" name="Ki" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{EC069F80-CF06-43EC-94F8-EE88788A99BC}" name="Kd" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E3C8784-44A9-48CC-A4B7-6147513290F5}" name="Table2" displayName="Table2" ref="A2:C18" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5E3C8784-44A9-48CC-A4B7-6147513290F5}" name="Table2" displayName="Table2" ref="A2:C18" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A2:C18" xr:uid="{5E3C8784-44A9-48CC-A4B7-6147513290F5}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A46061FE-C423-4C1C-92E2-D6BA9F8D67A3}" name="Quantity" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{67C7E5AE-F6E8-4FF9-B326-A37F76CDBFCA}" name="Units" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{01728CC4-FB8E-4742-9D79-7BAB63A4F015}" name="Value" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{A46061FE-C423-4C1C-92E2-D6BA9F8D67A3}" name="Quantity" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{67C7E5AE-F6E8-4FF9-B326-A37F76CDBFCA}" name="Units" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{01728CC4-FB8E-4742-9D79-7BAB63A4F015}" name="Value" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4672CA8D-68D2-49D2-AEC0-C00852B0EEFE}" name="Table4" displayName="Table4" ref="E2:L4" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4672CA8D-68D2-49D2-AEC0-C00852B0EEFE}" name="Table4" displayName="Table4" ref="E2:L4" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="E2:L4" xr:uid="{4672CA8D-68D2-49D2-AEC0-C00852B0EEFE}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{AC23AE87-50CB-4A90-AC98-150333024A7E}" name="Type" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{F8D4B7CB-6B96-473E-BFA0-AF104D5CF375}" name="Specifications" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{03259BC0-CF74-490A-87CD-3CEDFF1D2CC2}" name="Number" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{CEB30F0F-1D02-4560-BB42-C00210996698}" name="r/D" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{077F03B1-5716-452A-BFF2-86597921FBD6}" name="(L/D)eq" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B6FE7BD7-5A84-4984-9E72-760941487FE7}" name="K1" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{3C2B5018-430D-44B1-A6A0-03B9B8FCB3F4}" name="Ki" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{605A8531-EDD2-4EFA-B5EA-4BD999E504D4}" name="Kd" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{AC23AE87-50CB-4A90-AC98-150333024A7E}" name="Type" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F8D4B7CB-6B96-473E-BFA0-AF104D5CF375}" name="Specifications" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{03259BC0-CF74-490A-87CD-3CEDFF1D2CC2}" name="Number" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{CEB30F0F-1D02-4560-BB42-C00210996698}" name="r/D" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{077F03B1-5716-452A-BFF2-86597921FBD6}" name="(L/D)eq" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B6FE7BD7-5A84-4984-9E72-760941487FE7}" name="K1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{3C2B5018-430D-44B1-A6A0-03B9B8FCB3F4}" name="Ki" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{605A8531-EDD2-4EFA-B5EA-4BD999E504D4}" name="Kd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1823,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D106FB-F0B4-488C-A96C-20D7EEFBA8F4}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,6 +2716,10 @@
       <c r="C12" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
+      <c r="F12" s="2">
+        <f>F15/3.2808^3</f>
+        <v>1.0243370033332928E-3</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -2901,15 +2909,15 @@
         <v>50</v>
       </c>
       <c r="F21" s="10">
-        <f>$G3*($J3/F$16+$K3*(1+$L3/$C$16^0.3))</f>
+        <f t="shared" ref="F21:H22" si="0">$G3*($J3/F$16+$K3*(1+$L3/$C$16^0.3))</f>
         <v>12.202793916629203</v>
       </c>
       <c r="G21" s="10">
-        <f>$G3*($J3/G$16+$K3*(1+$L3/$C$16^0.3))</f>
+        <f t="shared" si="0"/>
         <v>12.206500698660554</v>
       </c>
       <c r="H21" s="10">
-        <f>$G3*($J3/H$16+$K3*(1+$L3/$C$16^0.3))</f>
+        <f t="shared" si="0"/>
         <v>12.206562500772797</v>
       </c>
     </row>
@@ -2918,15 +2926,15 @@
         <v>51</v>
       </c>
       <c r="F22" s="10">
-        <f>$G4*($J4/F$16+$K4*(1+$L4/$C$16^0.3))</f>
+        <f t="shared" si="0"/>
         <v>3.7140282913295186</v>
       </c>
       <c r="G22" s="10">
-        <f>$G4*($J4/G$16+$K4*(1+$L4/$C$16^0.3))</f>
+        <f t="shared" si="0"/>
         <v>3.7143178836757178</v>
       </c>
       <c r="H22" s="10">
-        <f>$G4*($J4/H$16+$K4*(1+$L4/$C$16^0.3))</f>
+        <f t="shared" si="0"/>
         <v>3.7143227119657372</v>
       </c>
     </row>
